--- a/results/FrequencyTables/26775808_sgRNA-5.xlsx
+++ b/results/FrequencyTables/26775808_sgRNA-5.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.16</v>
+        <v>0.227544910179641</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0172155688622754</v>
       </c>
       <c r="D2">
-        <v>0.89</v>
+        <v>0.789670658682635</v>
       </c>
       <c r="E2">
-        <v>0.07</v>
+        <v>0.0853293413173653</v>
       </c>
       <c r="F2">
-        <v>0.79</v>
+        <v>0.697604790419162</v>
       </c>
       <c r="G2">
-        <v>0.07</v>
+        <v>0.0868263473053892</v>
       </c>
       <c r="H2">
-        <v>0.08</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="I2">
-        <v>0.03</v>
+        <v>0.0232035928143713</v>
       </c>
       <c r="J2">
-        <v>0.94</v>
+        <v>0.921407185628742</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0434131736526946</v>
       </c>
       <c r="L2">
-        <v>0.17</v>
+        <v>0.0988023952095808</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.000748502994011976</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.000748502994011976</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.000748502994011976</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.93</v>
+        <v>0.852544910179641</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.997754491017964</v>
       </c>
       <c r="U2">
-        <v>0.93</v>
+        <v>0.907934131736527</v>
       </c>
       <c r="V2">
-        <v>0.02</v>
+        <v>0.0172155688622754</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0254491017964072</v>
       </c>
       <c r="X2">
-        <v>0.02</v>
+        <v>0.0359281437125748</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,49 +539,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00673652694610778</v>
       </c>
       <c r="C3">
-        <v>0.11</v>
+        <v>0.157185628742515</v>
       </c>
       <c r="D3">
-        <v>0.09</v>
+        <v>0.155688622754491</v>
       </c>
       <c r="E3">
-        <v>0.74</v>
+        <v>0.703592814371258</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>0.114520958083832</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
+        <v>0.110778443113772</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.710329341317365</v>
       </c>
       <c r="I3">
-        <v>0.04</v>
+        <v>0.0973053892215569</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0134730538922156</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00374251497005988</v>
       </c>
       <c r="L3">
-        <v>0.71</v>
+        <v>0.678892215568862</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.0134730538922156</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.000748502994011976</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.987275449101796</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -590,22 +590,22 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.995508982035928</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00149700598802395</v>
       </c>
       <c r="U3">
-        <v>0.04</v>
+        <v>0.0853293413173653</v>
       </c>
       <c r="V3">
-        <v>0.07</v>
+        <v>0.0860778443113772</v>
       </c>
       <c r="W3">
-        <v>0.16</v>
+        <v>0.226047904191617</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00374251497005988</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02</v>
+        <v>0.0164670658682635</v>
       </c>
       <c r="C4">
-        <v>0.89</v>
+        <v>0.820359281437126</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0291916167664671</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00598802395209581</v>
       </c>
       <c r="F4">
-        <v>0.02</v>
+        <v>0.0187125748502994</v>
       </c>
       <c r="G4">
-        <v>0.02</v>
+        <v>0.0134730538922156</v>
       </c>
       <c r="H4">
-        <v>0.09</v>
+        <v>0.168413173652695</v>
       </c>
       <c r="I4">
-        <v>0.88</v>
+        <v>0.854041916167665</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="K4">
-        <v>0.91</v>
+        <v>0.780688622754491</v>
       </c>
       <c r="L4">
-        <v>0.09</v>
+        <v>0.170658682634731</v>
       </c>
       <c r="M4">
-        <v>0.11</v>
+        <v>0.197604790419162</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00374251497005988</v>
       </c>
       <c r="O4">
-        <v>0.49</v>
+        <v>0.462574850299401</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.000748502994011976</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00598802395209581</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00374251497005988</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000748502994011976</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.000748502994011976</v>
       </c>
       <c r="V4">
-        <v>0.91</v>
+        <v>0.893712574850299</v>
       </c>
       <c r="W4">
-        <v>0.82</v>
+        <v>0.709580838323353</v>
       </c>
       <c r="X4">
-        <v>0.82</v>
+        <v>0.714820359281437</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.82</v>
+        <v>0.749251497005988</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00523952095808383</v>
       </c>
       <c r="D5">
-        <v>0.02</v>
+        <v>0.0254491017964072</v>
       </c>
       <c r="E5">
-        <v>0.19</v>
+        <v>0.205089820359281</v>
       </c>
       <c r="F5">
-        <v>0.09</v>
+        <v>0.169161676646707</v>
       </c>
       <c r="G5">
-        <v>0.81</v>
+        <v>0.788922155688623</v>
       </c>
       <c r="H5">
-        <v>0.03</v>
+        <v>0.0553892215568862</v>
       </c>
       <c r="I5">
-        <v>0.05</v>
+        <v>0.0254491017964072</v>
       </c>
       <c r="J5">
-        <v>0.06</v>
+        <v>0.0471556886227545</v>
       </c>
       <c r="K5">
-        <v>0.09</v>
+        <v>0.172155688622754</v>
       </c>
       <c r="L5">
-        <v>0.03</v>
+        <v>0.0516467065868263</v>
       </c>
       <c r="M5">
-        <v>0.79</v>
+        <v>0.785928143712575</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.994760479041916</v>
       </c>
       <c r="O5">
-        <v>0.51</v>
+        <v>0.536676646706587</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.0119760479041916</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0.999251497005988</v>
       </c>
       <c r="R5">
-        <v>0.07</v>
+        <v>0.141467065868263</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000748502994011976</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.03</v>
+        <v>0.00598802395209581</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00224550898203593</v>
       </c>
       <c r="W5">
-        <v>0.02</v>
+        <v>0.0389221556886228</v>
       </c>
       <c r="X5">
-        <v>0.16</v>
+        <v>0.245508982035928</v>
       </c>
     </row>
   </sheetData>
